--- a/hpc_prog1_analysis.xlsx
+++ b/hpc_prog1_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wongc\Google Drive\Georgia Tech\spring2019\cx4220\hw2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wongc\Documents\GitHub\HPC_PI_Approx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0088527-18EA-4728-8CED-D6A740422FF8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807ACA85-AB29-4010-A661-83AAA8916444}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10020" firstSheet="1" activeTab="2" xr2:uid="{779A0E9D-636A-45EF-B129-D6E552138C48}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10020" xr2:uid="{779A0E9D-636A-45EF-B129-D6E552138C48}"/>
   </bookViews>
   <sheets>
     <sheet name="speedup analysis" sheetId="5" r:id="rId1"/>
@@ -110,9 +110,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +161,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,12 +193,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,22 +219,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -543,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F6896B-12EF-4EE7-9C13-35C83646555F}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -658,9 +669,9 @@
       <c r="A6" s="3">
         <v>25000000</v>
       </c>
-      <c r="B6" t="e">
+      <c r="B6">
         <f>'R=100,P=2'!$E$31</f>
-        <v>#DIV/0!</v>
+        <v>139.49807719999998</v>
       </c>
       <c r="C6">
         <f>'R=100,P=4'!$E$31</f>
@@ -679,9 +690,9 @@
       <c r="A7" s="3">
         <v>30000000</v>
       </c>
-      <c r="B7" t="e">
+      <c r="B7">
         <f>'R=100,P=2'!$E$37</f>
-        <v>#DIV/0!</v>
+        <v>166.81146759999999</v>
       </c>
       <c r="C7">
         <f>'R=100,P=4'!$E$37</f>
@@ -700,23 +711,23 @@
       <c r="A8" s="3">
         <v>35000000</v>
       </c>
-      <c r="B8" s="10" t="e">
+      <c r="B8" s="11">
         <f>'R=100,P=2'!$E$43</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C8" s="10" t="e">
+        <v>194.48161999999999</v>
+      </c>
+      <c r="C8" s="11">
         <f>'R=100,P=4'!$E$43</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="10">
+        <v>97.377161999999998</v>
+      </c>
+      <c r="D8" s="11">
         <f>'R=100,P=8'!$E$43</f>
         <v>49.395214000000003</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <f>'R=100,P=16'!$E$43</f>
         <v>24.252800000000001</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -724,23 +735,23 @@
       <c r="A9" s="3">
         <v>40000000</v>
       </c>
-      <c r="B9" s="10" t="e">
+      <c r="B9" s="11">
         <f>'R=100,P=2'!$E$49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="10" t="e">
+        <v>226.73752500000001</v>
+      </c>
+      <c r="C9" s="11">
         <f>'R=100,P=4'!$E$49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="10">
+        <v>110.83343499999999</v>
+      </c>
+      <c r="D9" s="11">
         <f>'R=100,P=8'!$E$49</f>
         <v>56.075479999999999</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <f>'R=100,P=16'!$E$49</f>
         <v>28.064344999999999</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -754,9 +765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF756FF-27AD-4DD1-A979-94E09C6FCAA3}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1361,9 +1372,15 @@
       <c r="D26">
         <v>2</v>
       </c>
+      <c r="E26">
+        <v>140.63112699999999</v>
+      </c>
+      <c r="F26">
+        <v>3.1416149999999998</v>
+      </c>
       <c r="G26">
         <f>ABS((PI()-F26)/PI())</f>
-        <v>1</v>
+        <v>7.1130832895136352E-6</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1379,9 +1396,15 @@
       <c r="D27">
         <v>2</v>
       </c>
+      <c r="E27">
+        <v>139.51623599999999</v>
+      </c>
+      <c r="F27">
+        <v>3.1416759999999999</v>
+      </c>
       <c r="G27">
         <f t="shared" ref="G27:G30" si="4">ABS((PI()-F27)/PI())</f>
-        <v>1</v>
+        <v>2.652998634675312E-5</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1397,9 +1420,15 @@
       <c r="D28">
         <v>2</v>
       </c>
+      <c r="E28">
+        <v>139.18846300000001</v>
+      </c>
+      <c r="F28">
+        <v>3.1415489999999999</v>
+      </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.3895369198584551E-5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1415,9 +1444,15 @@
       <c r="D29">
         <v>2</v>
       </c>
+      <c r="E29">
+        <v>138.856157</v>
+      </c>
+      <c r="F29">
+        <v>3.1416210000000002</v>
+      </c>
       <c r="G29">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>9.0229426067419782E-6</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1433,9 +1468,15 @@
       <c r="D30">
         <v>2</v>
       </c>
+      <c r="E30">
+        <v>139.29840300000001</v>
+      </c>
+      <c r="F30">
+        <v>3.1416189999999999</v>
+      </c>
       <c r="G30">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>8.3863228342854112E-6</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1445,17 +1486,17 @@
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6" t="e">
+      <c r="E31" s="6">
         <f>AVERAGE(E26:E30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="6" t="e">
+        <v>139.49807719999998</v>
+      </c>
+      <c r="F31" s="6">
         <f>AVERAGE(F26:F30)</f>
-        <v>#DIV/0!</v>
+        <v>3.141616</v>
       </c>
       <c r="G31" s="6">
         <f>AVERAGE(G26:G30)</f>
-        <v>1</v>
+        <v>1.2989540855175739E-5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1471,9 +1512,15 @@
       <c r="D32">
         <v>2</v>
       </c>
+      <c r="E32">
+        <v>167.20078899999999</v>
+      </c>
+      <c r="F32">
+        <v>3.1415980000000001</v>
+      </c>
       <c r="G32">
         <f>ABS((PI()-F32)/PI())</f>
-        <v>1</v>
+        <v>1.7018152244809655E-6</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -1489,9 +1536,15 @@
       <c r="D33">
         <v>2</v>
       </c>
+      <c r="E33">
+        <v>166.39612700000001</v>
+      </c>
+      <c r="F33">
+        <v>3.1416369999999998</v>
+      </c>
       <c r="G33">
         <f t="shared" ref="G33:G36" si="5">ABS((PI()-F33)/PI())</f>
-        <v>1</v>
+        <v>1.4115900785546365E-5</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -1507,9 +1560,15 @@
       <c r="D34">
         <v>2</v>
       </c>
+      <c r="E34">
+        <v>167.19723400000001</v>
+      </c>
+      <c r="F34">
+        <v>3.1416240000000002</v>
+      </c>
       <c r="G34">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>9.977872265285469E-6</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -1525,9 +1584,15 @@
       <c r="D35">
         <v>2</v>
       </c>
+      <c r="E35">
+        <v>166.43255300000001</v>
+      </c>
+      <c r="F35">
+        <v>3.1415839999999999</v>
+      </c>
       <c r="G35">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2.75452318214957E-6</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -1543,9 +1608,15 @@
       <c r="D36">
         <v>2</v>
       </c>
+      <c r="E36">
+        <v>166.830635</v>
+      </c>
+      <c r="F36">
+        <v>3.1415250000000001</v>
+      </c>
       <c r="G36">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2.1534806466932488E-5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -1555,17 +1626,17 @@
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="6" t="e">
+      <c r="E37" s="6">
         <f>AVERAGE(E32:E36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" s="6" t="e">
+        <v>166.81146759999999</v>
+      </c>
+      <c r="F37" s="6">
         <f>AVERAGE(F32:F36)</f>
-        <v>#DIV/0!</v>
+        <v>3.1415935999999998</v>
       </c>
       <c r="G37" s="6">
         <f>AVERAGE(G32:G36)</f>
-        <v>1</v>
+        <v>1.0016983584878972E-5</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -1581,9 +1652,15 @@
       <c r="D38">
         <v>2</v>
       </c>
+      <c r="E38">
+        <v>194.48161999999999</v>
+      </c>
+      <c r="F38" s="10">
+        <v>-3.3869280000000002</v>
+      </c>
       <c r="G38">
         <f>ABS((PI()-F38)/PI())</f>
-        <v>1</v>
+        <v>2.0780926661926937</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -1598,10 +1675,6 @@
       </c>
       <c r="D39">
         <v>2</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ref="G39:G42" si="6">ABS((PI()-F39)/PI())</f>
-        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -1617,10 +1690,6 @@
       <c r="D40">
         <v>2</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
@@ -1634,10 +1703,6 @@
       </c>
       <c r="D41">
         <v>2</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="6"/>
-        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -1653,10 +1718,6 @@
       <c r="D42">
         <v>2</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
@@ -1665,17 +1726,17 @@
       <c r="B43" s="7"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="6" t="e">
+      <c r="E43" s="6">
         <f>AVERAGE(E38:E42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F43" s="6" t="e">
+        <v>194.48161999999999</v>
+      </c>
+      <c r="F43" s="6">
         <f>AVERAGE(F38:F42)</f>
-        <v>#DIV/0!</v>
+        <v>-3.3869280000000002</v>
       </c>
       <c r="G43" s="6">
         <f>AVERAGE(G38:G42)</f>
-        <v>1</v>
+        <v>2.0780926661926937</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -1691,9 +1752,15 @@
       <c r="D44">
         <v>2</v>
       </c>
+      <c r="E44">
+        <v>226.73752500000001</v>
+      </c>
+      <c r="F44" s="10">
+        <v>-4.5754010000000003</v>
+      </c>
       <c r="G44">
         <f>ABS((PI()-F44)/PI())</f>
-        <v>1</v>
+        <v>2.4563953715552023</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -1708,10 +1775,6 @@
       </c>
       <c r="D45">
         <v>2</v>
-      </c>
-      <c r="G45">
-        <f t="shared" ref="G45:G48" si="7">ABS((PI()-F45)/PI())</f>
-        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -1727,10 +1790,6 @@
       <c r="D46">
         <v>2</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
@@ -1744,10 +1803,6 @@
       </c>
       <c r="D47">
         <v>2</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="7"/>
-        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -1763,10 +1818,6 @@
       <c r="D48">
         <v>2</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
@@ -1775,17 +1826,17 @@
       <c r="B49" s="7"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="6" t="e">
+      <c r="E49" s="6">
         <f>AVERAGE(E44:E48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F49" s="6" t="e">
+        <v>226.73752500000001</v>
+      </c>
+      <c r="F49" s="6">
         <f>AVERAGE(F44:F48)</f>
-        <v>#DIV/0!</v>
+        <v>-4.5754010000000003</v>
       </c>
       <c r="G49" s="6">
         <f>AVERAGE(G44:G48)</f>
-        <v>1</v>
+        <v>2.4563953715552023</v>
       </c>
     </row>
   </sheetData>
@@ -1798,8 +1849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBD7B61-A568-476E-97BA-813CF7295A71}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2684,9 +2736,15 @@
       <c r="D38">
         <v>4</v>
       </c>
+      <c r="E38">
+        <v>97.377161999999998</v>
+      </c>
+      <c r="F38" s="10">
+        <v>-3.3868939999999998</v>
+      </c>
       <c r="G38">
         <f>ABS((PI()-F38)/PI())</f>
-        <v>1</v>
+        <v>2.0780818436565633</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -2701,10 +2759,6 @@
       </c>
       <c r="D39">
         <v>4</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ref="G39:G42" si="6">ABS((PI()-F39)/PI())</f>
-        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -2720,10 +2774,6 @@
       <c r="D40">
         <v>4</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
@@ -2737,10 +2787,6 @@
       </c>
       <c r="D41">
         <v>4</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="6"/>
-        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2756,10 +2802,6 @@
       <c r="D42">
         <v>4</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
@@ -2768,17 +2810,17 @@
       <c r="B43" s="7"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="6" t="e">
+      <c r="E43" s="6">
         <f>AVERAGE(E38:E42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F43" s="6" t="e">
+        <v>97.377161999999998</v>
+      </c>
+      <c r="F43" s="6">
         <f>AVERAGE(F38:F42)</f>
-        <v>#DIV/0!</v>
+        <v>-3.3868939999999998</v>
       </c>
       <c r="G43" s="6">
         <f>AVERAGE(G38:G42)</f>
-        <v>1</v>
+        <v>2.0780818436565633</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2794,9 +2836,15 @@
       <c r="D44">
         <v>4</v>
       </c>
+      <c r="E44">
+        <v>110.83343499999999</v>
+      </c>
+      <c r="F44" s="10">
+        <v>-4.5753690000000002</v>
+      </c>
       <c r="G44">
         <f>ABS((PI()-F44)/PI())</f>
-        <v>1</v>
+        <v>2.4563851856388443</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2811,10 +2859,6 @@
       </c>
       <c r="D45">
         <v>4</v>
-      </c>
-      <c r="G45">
-        <f t="shared" ref="G45:G48" si="7">ABS((PI()-F45)/PI())</f>
-        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2830,10 +2874,6 @@
       <c r="D46">
         <v>4</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
@@ -2847,10 +2887,6 @@
       </c>
       <c r="D47">
         <v>4</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="7"/>
-        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2866,10 +2902,6 @@
       <c r="D48">
         <v>4</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
@@ -2878,23 +2910,23 @@
       <c r="B49" s="7"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="6" t="e">
+      <c r="E49" s="6">
         <f>AVERAGE(E44:E48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F49" s="6" t="e">
+        <v>110.83343499999999</v>
+      </c>
+      <c r="F49" s="6">
         <f>AVERAGE(F44:F48)</f>
-        <v>#DIV/0!</v>
+        <v>-4.5753690000000002</v>
       </c>
       <c r="G49" s="6">
         <f>AVERAGE(G44:G48)</f>
-        <v>1</v>
+        <v>2.4563851856388443</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="G7" formula="1"/>
+    <ignoredError sqref="G7 G31" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2903,8 +2935,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9577F33C-990F-4E83-9752-11E7E2536153}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3792,7 +3825,7 @@
       <c r="E38">
         <v>49.395214000000003</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="11">
         <v>-3.3869050000000001</v>
       </c>
       <c r="G38">
@@ -3813,10 +3846,6 @@
       <c r="D39">
         <v>8</v>
       </c>
-      <c r="G39">
-        <f t="shared" ref="G39:G42" si="6">ABS((PI()-F39)/PI())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
@@ -3831,10 +3860,6 @@
       <c r="D40">
         <v>8</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
@@ -3848,10 +3873,6 @@
       </c>
       <c r="D41">
         <v>8</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="6"/>
-        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -3866,10 +3887,6 @@
       </c>
       <c r="D42">
         <v>8</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="6"/>
-        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -3889,7 +3906,7 @@
       </c>
       <c r="G43" s="6">
         <f>AVERAGE(G38:G42)</f>
-        <v>1.2156170690130623</v>
+        <v>2.0780853450653116</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -3908,7 +3925,7 @@
       <c r="E44">
         <v>56.075479999999999</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="11">
         <v>-4.5753029999999999</v>
       </c>
       <c r="G44">
@@ -3929,10 +3946,6 @@
       <c r="D45">
         <v>8</v>
       </c>
-      <c r="G45">
-        <f t="shared" ref="G45:G48" si="7">ABS((PI()-F45)/PI())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
@@ -3947,10 +3960,6 @@
       <c r="D46">
         <v>8</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
@@ -3964,10 +3973,6 @@
       </c>
       <c r="D47">
         <v>8</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="7"/>
-        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -3982,10 +3987,6 @@
       </c>
       <c r="D48">
         <v>8</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="7"/>
-        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -4005,7 +4006,7 @@
       </c>
       <c r="G49" s="6">
         <f>AVERAGE(G44:G48)</f>
-        <v>1.2912728354372711</v>
+        <v>2.456364177186356</v>
       </c>
     </row>
   </sheetData>
@@ -4018,7 +4019,8 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4906,7 +4908,7 @@
       <c r="E38">
         <v>24.252800000000001</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="11">
         <v>-3.386892</v>
       </c>
       <c r="G38">
@@ -4927,10 +4929,6 @@
       <c r="D39">
         <v>16</v>
       </c>
-      <c r="G39">
-        <f t="shared" ref="G39:G42" si="6">ABS((PI()-F39)/PI())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
@@ -4945,10 +4943,6 @@
       <c r="D40">
         <v>16</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
@@ -4962,10 +4956,6 @@
       </c>
       <c r="D41">
         <v>16</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="6"/>
-        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -4980,10 +4970,6 @@
       </c>
       <c r="D42">
         <v>16</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="6"/>
-        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -5003,7 +4989,7 @@
       </c>
       <c r="G43" s="6">
         <f>AVERAGE(G38:G42)</f>
-        <v>1.2156162414073581</v>
+        <v>2.0780812070367909</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -5022,7 +5008,7 @@
       <c r="E44">
         <v>28.064344999999999</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="11">
         <v>-4.5752439999999996</v>
       </c>
       <c r="G44">
@@ -5043,10 +5029,6 @@
       <c r="D45">
         <v>16</v>
       </c>
-      <c r="G45">
-        <f t="shared" ref="G45:G48" si="7">ABS((PI()-F45)/PI())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
@@ -5061,10 +5043,6 @@
       <c r="D46">
         <v>16</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
@@ -5078,10 +5056,6 @@
       </c>
       <c r="D47">
         <v>16</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="7"/>
-        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -5096,10 +5070,6 @@
       </c>
       <c r="D48">
         <v>16</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="7"/>
-        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -5119,7 +5089,7 @@
       </c>
       <c r="G49" s="6">
         <f>AVERAGE(G44:G48)</f>
-        <v>1.2912690793806143</v>
+        <v>2.4563453969030711</v>
       </c>
     </row>
   </sheetData>

--- a/hpc_prog1_analysis.xlsx
+++ b/hpc_prog1_analysis.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wongc\Documents\GitHub\HPC_PI_Approx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807ACA85-AB29-4010-A661-83AAA8916444}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD402E7-E03A-452D-903F-A1EEE08B5B3E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10020" xr2:uid="{779A0E9D-636A-45EF-B129-D6E552138C48}"/>
   </bookViews>
   <sheets>
     <sheet name="speedup analysis" sheetId="5" r:id="rId1"/>
-    <sheet name="R=100,P=2" sheetId="1" r:id="rId2"/>
-    <sheet name="R=100,P=4" sheetId="2" r:id="rId3"/>
-    <sheet name="R=100,P=8" sheetId="3" r:id="rId4"/>
-    <sheet name="R=100,P=16" sheetId="4" r:id="rId5"/>
+    <sheet name="R=100,P=1" sheetId="6" r:id="rId2"/>
+    <sheet name="R=100,P=2" sheetId="1" r:id="rId3"/>
+    <sheet name="R=100,P=4" sheetId="2" r:id="rId4"/>
+    <sheet name="R=100,P=8" sheetId="3" r:id="rId5"/>
+    <sheet name="R=100,P=16" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="11">
   <si>
     <t>N</t>
   </si>
@@ -108,9 +109,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -219,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -237,6 +239,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -253,6 +256,2887 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>The effect of P on runtime of a parallelized pi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>approximation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>dartboard algorithm for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>various problem</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> sizes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>N=5.0E+06</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>54.697243800000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.065609599999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.144812400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.266578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7038871999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4922-489F-B371-A5967C2E679B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>N=1.0E+07</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>110.0044676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.773214600000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.024060200000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.4186642</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0657733999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4922-489F-B371-A5967C2E679B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>N=1.5E+07</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>162.78816060000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.601157600000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.829970400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.717515999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.5313456</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4922-489F-B371-A5967C2E679B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>N=2.0E+07</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>218.15790740000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.10914640000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.085556400000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.530226200000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.990488199999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4922-489F-B371-A5967C2E679B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>N=2.5E+07</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>273.43886140000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.49807719999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.001990000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.360708199999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.456140000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4922-489F-B371-A5967C2E679B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>N=3.0E+07</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$B$1:$F$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>326.39872400000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166.81146759999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.962783200000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.263588800000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.242751800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4922-489F-B371-A5967C2E679B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404041872"/>
+        <c:axId val="404032688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="404041872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Processors (P)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404032688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404032688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404041872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>The effect of N on runtime of a parallelized pi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>approximation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>dartboard algorithm using</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> various numbers of processors</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>P=1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>54.697243800000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.0044676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162.78816060000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>218.15790740000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>273.43886140000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>326.39872400000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-003F-48E3-890A-68A1F987F623}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>P=2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28.065609599999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.773214600000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.601157600000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112.10914640000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139.49807719999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>166.81146759999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-003F-48E3-890A-68A1F987F623}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>P=4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14.144812400000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.024060200000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.829970400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.085556400000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.001990000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.962783200000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-003F-48E3-890A-68A1F987F623}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>P=8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.266578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.4186642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.717515999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.530226200000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.360708199999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.263588800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-003F-48E3-890A-68A1F987F623}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>P=16</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'speedup analysis'!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7038871999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0657733999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.5313456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.990488199999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.456140000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.242751800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-003F-48E3-890A-68A1F987F623}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404041872"/>
+        <c:axId val="404032688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="404041872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Problem Size (N)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404032688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404032688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404041872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>136524</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F551E72-A142-4C1B-8377-DB058165D3A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>263526</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>168276</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40102D4-169E-4FAA-B339-54AA9D5EF7BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,221 +3436,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F6896B-12EF-4EE7-9C13-35C83646555F}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.8">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="9">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9">
         <v>2</v>
       </c>
-      <c r="C1" s="9">
+      <c r="D1" s="9">
         <v>4</v>
       </c>
-      <c r="D1" s="9">
+      <c r="E1" s="9">
         <v>8</v>
       </c>
-      <c r="E1" s="9">
+      <c r="F1" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
         <v>5000000</v>
       </c>
       <c r="B2">
+        <f>'R=100,P=1'!$E$7</f>
+        <v>54.697243800000003</v>
+      </c>
+      <c r="C2">
         <f>'R=100,P=2'!$E$7</f>
         <v>28.065609599999998</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <f>'R=100,P=4'!$E$7</f>
         <v>14.144812400000001</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <f>'R=100,P=8'!$E$7</f>
         <v>7.266578</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f>'R=100,P=16'!$E$7</f>
         <v>3.7038871999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
         <v>10000000</v>
       </c>
       <c r="B3">
+        <f>'R=100,P=1'!$E$13</f>
+        <v>110.0044676</v>
+      </c>
+      <c r="C3">
         <f>'R=100,P=2'!$E$13</f>
         <v>55.773214600000003</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <f>'R=100,P=4'!$E$13</f>
         <v>28.024060200000001</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <f>'R=100,P=8'!$E$13</f>
         <v>14.4186642</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f>'R=100,P=16'!$E$13</f>
         <v>7.0657733999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
         <v>15000000</v>
       </c>
       <c r="B4">
+        <f>'R=100,P=1'!$E$19</f>
+        <v>162.78816060000003</v>
+      </c>
+      <c r="C4">
         <f>'R=100,P=2'!$E$19</f>
         <v>83.601157600000008</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <f>'R=100,P=4'!$E$19</f>
         <v>41.829970400000001</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f>'R=100,P=8'!$E$19</f>
         <v>21.717515999999996</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f>'R=100,P=16'!$E$19</f>
         <v>10.5313456</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
         <v>20000000</v>
       </c>
       <c r="B5">
+        <f>'R=100,P=1'!$E$25</f>
+        <v>218.15790740000003</v>
+      </c>
+      <c r="C5">
         <f>'R=100,P=2'!$E$25</f>
         <v>112.10914640000001</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <f>'R=100,P=4'!$E$25</f>
         <v>56.085556400000009</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f>'R=100,P=8'!$E$25</f>
         <v>28.530226200000005</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f>'R=100,P=16'!$E$25</f>
         <v>13.990488199999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
         <v>25000000</v>
       </c>
       <c r="B6">
+        <f>'R=100,P=1'!$E$31</f>
+        <v>273.43886140000001</v>
+      </c>
+      <c r="C6">
         <f>'R=100,P=2'!$E$31</f>
         <v>139.49807719999998</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f>'R=100,P=4'!$E$31</f>
         <v>70.001990000000006</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f>'R=100,P=8'!$E$31</f>
         <v>35.360708199999998</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f>'R=100,P=16'!$E$31</f>
         <v>17.456140000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
         <v>30000000</v>
       </c>
       <c r="B7">
+        <f>'R=100,P=1'!$E$37</f>
+        <v>326.39872400000002</v>
+      </c>
+      <c r="C7">
         <f>'R=100,P=2'!$E$37</f>
         <v>166.81146759999999</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f>'R=100,P=4'!$E$37</f>
         <v>84.962783200000004</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f>'R=100,P=8'!$E$37</f>
         <v>42.263588800000001</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f>'R=100,P=16'!$E$37</f>
         <v>23.242751800000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
         <v>35000000</v>
       </c>
       <c r="B8" s="11">
+        <f>'R=100,P=1'!$E$43</f>
+        <v>383.49664799999999</v>
+      </c>
+      <c r="C8" s="11">
         <f>'R=100,P=2'!$E$43</f>
         <v>194.48161999999999</v>
       </c>
-      <c r="C8" s="11">
+      <c r="D8" s="11">
         <f>'R=100,P=4'!$E$43</f>
         <v>97.377161999999998</v>
       </c>
-      <c r="D8" s="11">
+      <c r="E8" s="11">
         <f>'R=100,P=8'!$E$43</f>
         <v>49.395214000000003</v>
       </c>
-      <c r="E8" s="11">
+      <c r="F8" s="11">
         <f>'R=100,P=16'!$E$43</f>
         <v>24.252800000000001</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
         <v>40000000</v>
       </c>
       <c r="B9" s="11">
+        <f>'R=100,P=1'!$E$49</f>
+        <v>437.00844000000001</v>
+      </c>
+      <c r="C9" s="11">
         <f>'R=100,P=2'!$E$49</f>
         <v>226.73752500000001</v>
       </c>
-      <c r="C9" s="11">
+      <c r="D9" s="11">
         <f>'R=100,P=4'!$E$49</f>
         <v>110.83343499999999</v>
       </c>
-      <c r="D9" s="11">
+      <c r="E9" s="11">
         <f>'R=100,P=8'!$E$49</f>
         <v>56.075479999999999</v>
       </c>
-      <c r="E9" s="11">
+      <c r="F9" s="11">
         <f>'R=100,P=16'!$E$49</f>
         <v>28.064344999999999</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF756FF-27AD-4DD1-A979-94E09C6FCAA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8756120-DEEE-4C5D-9A0D-C51D33EC886E}">
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
@@ -810,17 +3730,17 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>27.830708999999999</v>
+        <v>55.466574000000001</v>
       </c>
       <c r="F2">
-        <v>3.141562</v>
+        <v>3.141473</v>
       </c>
       <c r="G2">
         <f>ABS((PI()-F2)/PI())</f>
-        <v>9.7573406781822994E-6</v>
+        <v>3.8086920548541495E-5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -834,17 +3754,17 @@
         <v>100</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>28.117559</v>
+        <v>55.246628000000001</v>
       </c>
       <c r="F3">
-        <v>3.1415660000000001</v>
+        <v>3.141724</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G6" si="0">ABS((PI()-F3)/PI())</f>
-        <v>8.4841011334105234E-6</v>
+        <v>4.1808860883590357E-5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -858,17 +3778,17 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>27.804238000000002</v>
+        <v>53.675905999999998</v>
       </c>
       <c r="F4">
-        <v>3.1415510000000002</v>
+        <v>3.141642</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>1.3258749426127984E-5</v>
+        <v>1.5707450216546424E-5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -882,17 +3802,17 @@
         <v>100</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>27.899871000000001</v>
+        <v>55.118976000000004</v>
       </c>
       <c r="F5">
-        <v>3.1415950000000001</v>
+        <v>3.141705</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>7.4688556593747324E-7</v>
+        <v>3.5760973046101115E-5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -906,17 +3826,17 @@
         <v>100</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>28.675671000000001</v>
+        <v>53.978135000000002</v>
       </c>
       <c r="F6">
-        <v>3.1418189999999999</v>
+        <v>3.1416330000000001</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>7.2048300071036539E-5</v>
+        <v>1.2842661240915947E-5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -928,15 +3848,15 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6">
         <f>AVERAGE(E2:E6)</f>
-        <v>28.065609599999998</v>
+        <v>54.697243800000003</v>
       </c>
       <c r="F7" s="6">
         <f>AVERAGE(F2:F6)</f>
-        <v>3.1416186000000001</v>
+        <v>3.1416353999999997</v>
       </c>
       <c r="G7" s="6">
         <f>AVERAGE(G2:G6)</f>
-        <v>2.0859075374938961E-5</v>
+        <v>2.8841373187139066E-5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -950,17 +3870,17 @@
         <v>100</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>55.711472000000001</v>
+        <v>109.56396599999999</v>
       </c>
       <c r="F8">
-        <v>3.141648</v>
+        <v>3.1415860000000002</v>
       </c>
       <c r="G8">
         <f>ABS((PI()-F8)/PI())</f>
-        <v>1.7617309533633406E-5</v>
+        <v>2.1179034096930035E-6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -974,17 +3894,17 @@
         <v>100</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>55.474800000000002</v>
+        <v>110.43932</v>
       </c>
       <c r="F9">
-        <v>3.1415479999999998</v>
+        <v>3.1415549999999999</v>
       </c>
       <c r="G9">
         <f t="shared" ref="G9:G12" si="1">ABS((PI()-F9)/PI())</f>
-        <v>1.4213679084812835E-5</v>
+        <v>1.1985509881497566E-5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -998,17 +3918,17 @@
         <v>100</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>55.987101000000003</v>
+        <v>110.058224</v>
       </c>
       <c r="F10">
-        <v>3.1415839999999999</v>
+        <v>3.1417359999999999</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>2.75452318214957E-6</v>
+        <v>4.562857951776432E-5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1022,17 +3942,17 @@
         <v>100</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>55.779719</v>
+        <v>109.76459</v>
       </c>
       <c r="F11">
-        <v>3.1415649999999999</v>
+        <v>3.1416309999999998</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>8.8024110196388069E-6</v>
+        <v>1.220604146845938E-5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1046,17 +3966,17 @@
         <v>100</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>55.912981000000002</v>
+        <v>110.19623799999999</v>
       </c>
       <c r="F12">
-        <v>3.1416309999999998</v>
+        <v>3.141626</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>1.220604146845938E-5</v>
+        <v>1.0614492037600678E-5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1068,15 +3988,15 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6">
         <f>AVERAGE(E8:E12)</f>
-        <v>55.773214600000003</v>
+        <v>110.0044676</v>
       </c>
       <c r="F13" s="6">
         <f>AVERAGE(F8:F12)</f>
-        <v>3.1415952000000003</v>
+        <v>3.1416268000000001</v>
       </c>
       <c r="G13" s="6">
         <f>AVERAGE(G8:G12)</f>
-        <v>1.1118792857738799E-5</v>
+        <v>1.6510505263002989E-5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1090,17 +4010,17 @@
         <v>100</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>83.597003000000001</v>
+        <v>162.70109199999999</v>
       </c>
       <c r="F14">
-        <v>3.1416539999999999</v>
+        <v>3.1417079999999999</v>
       </c>
       <c r="G14">
         <f>ABS((PI()-F14)/PI())</f>
-        <v>1.9527168850720391E-5</v>
+        <v>3.6715902704644612E-5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1114,17 +4034,17 @@
         <v>100</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>83.864076999999995</v>
+        <v>162.24239299999999</v>
       </c>
       <c r="F15">
-        <v>3.1415850000000001</v>
+        <v>3.1416059999999999</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G18" si="2">ABS((PI()-F15)/PI())</f>
-        <v>2.4362132959212865E-6</v>
+        <v>4.2482943138831585E-6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1138,17 +4058,17 @@
         <v>100</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>83.582192000000006</v>
+        <v>162.82889299999999</v>
       </c>
       <c r="F16">
-        <v>3.1416240000000002</v>
+        <v>3.1415959999999998</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>9.977872265285469E-6</v>
+        <v>1.0651954520243986E-6</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1162,17 +4082,17 @@
         <v>100</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>83.388480000000001</v>
+        <v>164.3246</v>
       </c>
       <c r="F17">
-        <v>3.1416149999999998</v>
+        <v>3.1415869999999999</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>7.1130832895136352E-6</v>
+        <v>1.7995935236060779E-6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1186,17 +4106,17 @@
         <v>100</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>83.574036000000007</v>
+        <v>161.84382500000001</v>
       </c>
       <c r="F18">
-        <v>3.1415510000000002</v>
+        <v>3.1416119999999998</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>1.3258749426127984E-5</v>
+        <v>6.1581536309701427E-6</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1208,15 +4128,15 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6">
         <f>AVERAGE(E14:E18)</f>
-        <v>83.601157600000008</v>
+        <v>162.78816060000003</v>
       </c>
       <c r="F19" s="6">
         <f>AVERAGE(F14:F18)</f>
-        <v>3.1416057999999998</v>
+        <v>3.1416218000000002</v>
       </c>
       <c r="G19" s="6">
         <f>AVERAGE(G14:G18)</f>
-        <v>1.0462617425513752E-5</v>
+        <v>9.9974279250256784E-6</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1230,17 +4150,17 @@
         <v>100</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>110.75379100000001</v>
+        <v>220.63982200000001</v>
       </c>
       <c r="F20">
-        <v>3.1416810000000002</v>
+        <v>3.141591</v>
       </c>
       <c r="G20">
         <f>ABS((PI()-F20)/PI())</f>
-        <v>2.8121535777753178E-5</v>
+        <v>5.2635397883430234E-7</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1254,17 +4174,17 @@
         <v>100</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>113.884407</v>
+        <v>217.44502</v>
       </c>
       <c r="F21">
-        <v>3.141559</v>
+        <v>3.1416179999999998</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G24" si="3">ABS((PI()-F21)/PI())</f>
-        <v>1.071227033672579E-5</v>
+        <v>8.0680129480571278E-6</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1278,17 +4198,17 @@
         <v>100</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>111.124252</v>
+        <v>218.21685099999999</v>
       </c>
       <c r="F22">
-        <v>3.1414840000000002</v>
+        <v>3.1415820000000001</v>
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
-        <v>3.4585511800454456E-5</v>
+        <v>3.391142954464779E-6</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1302,17 +4222,17 @@
         <v>100</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>113.663946</v>
+        <v>217.34197599999999</v>
       </c>
       <c r="F23">
-        <v>3.1415359999999999</v>
+        <v>3.1416550000000001</v>
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
-        <v>1.8033397718986805E-5</v>
+        <v>1.9845478736948674E-5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1326,17 +4246,17 @@
         <v>100</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>111.119336</v>
+        <v>217.14586800000001</v>
       </c>
       <c r="F24">
-        <v>3.1416400000000002</v>
+        <v>3.1415320000000002</v>
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
-        <v>1.5070830444231213E-5</v>
+        <v>1.9306637263617219E-5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1348,15 +4268,15 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6">
         <f>AVERAGE(E20:E24)</f>
-        <v>112.10914640000001</v>
+        <v>218.15790740000003</v>
       </c>
       <c r="F25" s="6">
         <f>AVERAGE(F20:F24)</f>
-        <v>3.1415800000000003</v>
+        <v>3.1415955999999996</v>
       </c>
       <c r="G25" s="6">
         <f>AVERAGE(G20:G24)</f>
-        <v>2.1304709215630289E-5</v>
+        <v>1.0227525176384421E-5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1370,17 +4290,17 @@
         <v>100</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>140.63112699999999</v>
+        <v>270.117144</v>
       </c>
       <c r="F26">
-        <v>3.1416149999999998</v>
+        <v>3.1416439999999999</v>
       </c>
       <c r="G26">
         <f>ABS((PI()-F26)/PI())</f>
-        <v>7.1130832895136352E-6</v>
+        <v>1.6344069988861631E-5</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1394,17 +4314,17 @@
         <v>100</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>139.51623599999999</v>
+        <v>272.24685699999998</v>
       </c>
       <c r="F27">
-        <v>3.1416759999999999</v>
+        <v>3.1415459999999999</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27:G30" si="4">ABS((PI()-F27)/PI())</f>
-        <v>2.652998634675312E-5</v>
+        <v>1.4850298857128044E-5</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1418,17 +4338,17 @@
         <v>100</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>139.18846300000001</v>
+        <v>274.21435300000002</v>
       </c>
       <c r="F28">
-        <v>3.1415489999999999</v>
+        <v>3.141635</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>1.3895369198584551E-5</v>
+        <v>1.3479281013231156E-5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1442,17 +4362,17 @@
         <v>100</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>138.856157</v>
+        <v>275.75589500000001</v>
       </c>
       <c r="F29">
-        <v>3.1416210000000002</v>
+        <v>3.1415989999999998</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
-        <v>9.0229426067419782E-6</v>
+        <v>2.0201251105678909E-6</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1466,17 +4386,17 @@
         <v>100</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>139.29840300000001</v>
+        <v>274.86005799999998</v>
       </c>
       <c r="F30">
-        <v>3.1416189999999999</v>
+        <v>3.1415639999999998</v>
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
-        <v>8.3863228342854112E-6</v>
+        <v>9.1207209058670904E-6</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1488,15 +4408,15 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6">
         <f>AVERAGE(E26:E30)</f>
-        <v>139.49807719999998</v>
+        <v>273.43886140000001</v>
       </c>
       <c r="F31" s="6">
         <f>AVERAGE(F26:F30)</f>
-        <v>3.141616</v>
+        <v>3.1415975999999994</v>
       </c>
       <c r="G31" s="6">
         <f>AVERAGE(G26:G30)</f>
-        <v>1.2989540855175739E-5</v>
+        <v>1.1162899175131162E-5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1510,17 +4430,17 @@
         <v>100</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>167.20078899999999</v>
+        <v>325.32951400000002</v>
       </c>
       <c r="F32">
-        <v>3.1415980000000001</v>
+        <v>3.141572</v>
       </c>
       <c r="G32">
         <f>ABS((PI()-F32)/PI())</f>
-        <v>1.7018152244809655E-6</v>
+        <v>6.5742418163235392E-6</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -1534,17 +4454,17 @@
         <v>100</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>166.39612700000001</v>
+        <v>324.90435100000002</v>
       </c>
       <c r="F33">
-        <v>3.1416369999999998</v>
+        <v>3.141572</v>
       </c>
       <c r="G33">
         <f t="shared" ref="G33:G36" si="5">ABS((PI()-F33)/PI())</f>
-        <v>1.4115900785546365E-5</v>
+        <v>6.5742418163235392E-6</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -1558,17 +4478,17 @@
         <v>100</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>167.19723400000001</v>
+        <v>327.49618800000002</v>
       </c>
       <c r="F34">
-        <v>3.1416240000000002</v>
+        <v>3.1415760000000001</v>
       </c>
       <c r="G34">
         <f t="shared" si="5"/>
-        <v>9.977872265285469E-6</v>
+        <v>5.3010022715517632E-6</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -1582,17 +4502,17 @@
         <v>100</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>166.43255300000001</v>
+        <v>323.88205299999998</v>
       </c>
       <c r="F35">
-        <v>3.1415839999999999</v>
+        <v>3.1415630000000001</v>
       </c>
       <c r="G35">
         <f t="shared" si="5"/>
-        <v>2.75452318214957E-6</v>
+        <v>9.4390307919540159E-6</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -1606,17 +4526,17 @@
         <v>100</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>166.830635</v>
+        <v>330.38151399999998</v>
       </c>
       <c r="F36">
-        <v>3.1415250000000001</v>
+        <v>3.1415389999999999</v>
       </c>
       <c r="G36">
         <f t="shared" si="5"/>
-        <v>2.1534806466932488E-5</v>
+        <v>1.7078468060443311E-5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -1628,15 +4548,15 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6">
         <f>AVERAGE(E32:E36)</f>
-        <v>166.81146759999999</v>
+        <v>326.39872400000002</v>
       </c>
       <c r="F37" s="6">
         <f>AVERAGE(F32:F36)</f>
-        <v>3.1415935999999998</v>
+        <v>3.1415644</v>
       </c>
       <c r="G37" s="6">
         <f>AVERAGE(G32:G36)</f>
-        <v>1.0016983584878972E-5</v>
+        <v>8.9933969513192338E-6</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -1650,17 +4570,17 @@
         <v>100</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>194.48161999999999</v>
+        <v>383.49664799999999</v>
       </c>
       <c r="F38" s="10">
-        <v>-3.3869280000000002</v>
+        <v>-3.3869539999999998</v>
       </c>
       <c r="G38">
         <f>ABS((PI()-F38)/PI())</f>
-        <v>2.0780926661926937</v>
+        <v>2.0781009422497343</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -1674,7 +4594,7 @@
         <v>100</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -1688,7 +4608,7 @@
         <v>100</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -1702,7 +4622,7 @@
         <v>100</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -1716,7 +4636,7 @@
         <v>100</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -1728,15 +4648,15 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6">
         <f>AVERAGE(E38:E42)</f>
-        <v>194.48161999999999</v>
+        <v>383.49664799999999</v>
       </c>
       <c r="F43" s="6">
         <f>AVERAGE(F38:F42)</f>
-        <v>-3.3869280000000002</v>
+        <v>-3.3869539999999998</v>
       </c>
       <c r="G43" s="6">
         <f>AVERAGE(G38:G42)</f>
-        <v>2.0780926661926937</v>
+        <v>2.0781009422497343</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -1750,17 +4670,17 @@
         <v>100</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>226.73752500000001</v>
+        <v>437.00844000000001</v>
       </c>
       <c r="F44" s="10">
-        <v>-4.5754010000000003</v>
+        <v>-4.5753810000000001</v>
       </c>
       <c r="G44">
         <f>ABS((PI()-F44)/PI())</f>
-        <v>2.4563953715552023</v>
+        <v>2.4563890053574786</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -1774,7 +4694,7 @@
         <v>100</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -1788,7 +4708,7 @@
         <v>100</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -1802,7 +4722,7 @@
         <v>100</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -1816,7 +4736,7 @@
         <v>100</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -1828,15 +4748,15 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6">
         <f>AVERAGE(E44:E48)</f>
-        <v>226.73752500000001</v>
+        <v>437.00844000000001</v>
       </c>
       <c r="F49" s="6">
         <f>AVERAGE(F44:F48)</f>
-        <v>-4.5754010000000003</v>
+        <v>-4.5753810000000001</v>
       </c>
       <c r="G49" s="6">
         <f>AVERAGE(G44:G48)</f>
-        <v>2.4563953715552023</v>
+        <v>2.4563890053574786</v>
       </c>
     </row>
   </sheetData>
@@ -1846,11 +4766,1095 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF756FF-27AD-4DD1-A979-94E09C6FCAA3}">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>27.830708999999999</v>
+      </c>
+      <c r="F2">
+        <v>3.141562</v>
+      </c>
+      <c r="G2">
+        <f>ABS((PI()-F2)/PI())</f>
+        <v>9.7573406781822994E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>28.117559</v>
+      </c>
+      <c r="F3">
+        <v>3.1415660000000001</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="0">ABS((PI()-F3)/PI())</f>
+        <v>8.4841011334105234E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>27.804238000000002</v>
+      </c>
+      <c r="F4">
+        <v>3.1415510000000002</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1.3258749426127984E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>27.899871000000001</v>
+      </c>
+      <c r="F5">
+        <v>3.1415950000000001</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>7.4688556593747324E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>28.675671000000001</v>
+      </c>
+      <c r="F6">
+        <v>3.1418189999999999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>7.2048300071036539E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <f>AVERAGE(E2:E6)</f>
+        <v>28.065609599999998</v>
+      </c>
+      <c r="F7" s="6">
+        <f>AVERAGE(F2:F6)</f>
+        <v>3.1416186000000001</v>
+      </c>
+      <c r="G7" s="6">
+        <f>AVERAGE(G2:G6)</f>
+        <v>2.0859075374938961E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>55.711472000000001</v>
+      </c>
+      <c r="F8">
+        <v>3.141648</v>
+      </c>
+      <c r="G8">
+        <f>ABS((PI()-F8)/PI())</f>
+        <v>1.7617309533633406E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>55.474800000000002</v>
+      </c>
+      <c r="F9">
+        <v>3.1415479999999998</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G12" si="1">ABS((PI()-F9)/PI())</f>
+        <v>1.4213679084812835E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>55.987101000000003</v>
+      </c>
+      <c r="F10">
+        <v>3.1415839999999999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>2.75452318214957E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>55.779719</v>
+      </c>
+      <c r="F11">
+        <v>3.1415649999999999</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8.8024110196388069E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>55.912981000000002</v>
+      </c>
+      <c r="F12">
+        <v>3.1416309999999998</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1.220604146845938E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <f>AVERAGE(E8:E12)</f>
+        <v>55.773214600000003</v>
+      </c>
+      <c r="F13" s="6">
+        <f>AVERAGE(F8:F12)</f>
+        <v>3.1415952000000003</v>
+      </c>
+      <c r="G13" s="6">
+        <f>AVERAGE(G8:G12)</f>
+        <v>1.1118792857738799E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>15000000</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>83.597003000000001</v>
+      </c>
+      <c r="F14">
+        <v>3.1416539999999999</v>
+      </c>
+      <c r="G14">
+        <f>ABS((PI()-F14)/PI())</f>
+        <v>1.9527168850720391E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>15000000</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>83.864076999999995</v>
+      </c>
+      <c r="F15">
+        <v>3.1415850000000001</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G18" si="2">ABS((PI()-F15)/PI())</f>
+        <v>2.4362132959212865E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15000000</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>83.582192000000006</v>
+      </c>
+      <c r="F16">
+        <v>3.1416240000000002</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>9.977872265285469E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15000000</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>83.388480000000001</v>
+      </c>
+      <c r="F17">
+        <v>3.1416149999999998</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>7.1130832895136352E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15000000</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>83.574036000000007</v>
+      </c>
+      <c r="F18">
+        <v>3.1415510000000002</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>1.3258749426127984E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <f>AVERAGE(E14:E18)</f>
+        <v>83.601157600000008</v>
+      </c>
+      <c r="F19" s="6">
+        <f>AVERAGE(F14:F18)</f>
+        <v>3.1416057999999998</v>
+      </c>
+      <c r="G19" s="6">
+        <f>AVERAGE(G14:G18)</f>
+        <v>1.0462617425513752E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>110.75379100000001</v>
+      </c>
+      <c r="F20">
+        <v>3.1416810000000002</v>
+      </c>
+      <c r="G20">
+        <f>ABS((PI()-F20)/PI())</f>
+        <v>2.8121535777753178E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>113.884407</v>
+      </c>
+      <c r="F21">
+        <v>3.141559</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G24" si="3">ABS((PI()-F21)/PI())</f>
+        <v>1.071227033672579E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>111.124252</v>
+      </c>
+      <c r="F22">
+        <v>3.1414840000000002</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>3.4585511800454456E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>113.663946</v>
+      </c>
+      <c r="F23">
+        <v>3.1415359999999999</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>1.8033397718986805E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>111.119336</v>
+      </c>
+      <c r="F24">
+        <v>3.1416400000000002</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>1.5070830444231213E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <f>AVERAGE(E20:E24)</f>
+        <v>112.10914640000001</v>
+      </c>
+      <c r="F25" s="6">
+        <f>AVERAGE(F20:F24)</f>
+        <v>3.1415800000000003</v>
+      </c>
+      <c r="G25" s="6">
+        <f>AVERAGE(G20:G24)</f>
+        <v>2.1304709215630289E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25000000</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>140.63112699999999</v>
+      </c>
+      <c r="F26">
+        <v>3.1416149999999998</v>
+      </c>
+      <c r="G26">
+        <f>ABS((PI()-F26)/PI())</f>
+        <v>7.1130832895136352E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>25000000</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>139.51623599999999</v>
+      </c>
+      <c r="F27">
+        <v>3.1416759999999999</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G30" si="4">ABS((PI()-F27)/PI())</f>
+        <v>2.652998634675312E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
+        <v>25000000</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>139.18846300000001</v>
+      </c>
+      <c r="F28">
+        <v>3.1415489999999999</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>1.3895369198584551E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>25000000</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>138.856157</v>
+      </c>
+      <c r="F29">
+        <v>3.1416210000000002</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>9.0229426067419782E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>25000000</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>139.29840300000001</v>
+      </c>
+      <c r="F30">
+        <v>3.1416189999999999</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>8.3863228342854112E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
+        <f>AVERAGE(E26:E30)</f>
+        <v>139.49807719999998</v>
+      </c>
+      <c r="F31" s="6">
+        <f>AVERAGE(F26:F30)</f>
+        <v>3.141616</v>
+      </c>
+      <c r="G31" s="6">
+        <f>AVERAGE(G26:G30)</f>
+        <v>1.2989540855175739E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>167.20078899999999</v>
+      </c>
+      <c r="F32">
+        <v>3.1415980000000001</v>
+      </c>
+      <c r="G32">
+        <f>ABS((PI()-F32)/PI())</f>
+        <v>1.7018152244809655E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>166.39612700000001</v>
+      </c>
+      <c r="F33">
+        <v>3.1416369999999998</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G36" si="5">ABS((PI()-F33)/PI())</f>
+        <v>1.4115900785546365E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>167.19723400000001</v>
+      </c>
+      <c r="F34">
+        <v>3.1416240000000002</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>9.977872265285469E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>166.43255300000001</v>
+      </c>
+      <c r="F35">
+        <v>3.1415839999999999</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>2.75452318214957E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>166.830635</v>
+      </c>
+      <c r="F36">
+        <v>3.1415250000000001</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>2.1534806466932488E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6">
+        <f>AVERAGE(E32:E36)</f>
+        <v>166.81146759999999</v>
+      </c>
+      <c r="F37" s="6">
+        <f>AVERAGE(F32:F36)</f>
+        <v>3.1415935999999998</v>
+      </c>
+      <c r="G37" s="6">
+        <f>AVERAGE(G32:G36)</f>
+        <v>1.0016983584878972E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1">
+        <v>35000000</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>194.48161999999999</v>
+      </c>
+      <c r="F38" s="10">
+        <v>-3.3869280000000002</v>
+      </c>
+      <c r="G38">
+        <f>ABS((PI()-F38)/PI())</f>
+        <v>2.0780926661926937</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1">
+        <v>35000000</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1">
+        <v>35000000</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1">
+        <v>35000000</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>35000000</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6">
+        <f>AVERAGE(E38:E42)</f>
+        <v>194.48161999999999</v>
+      </c>
+      <c r="F43" s="6">
+        <f>AVERAGE(F38:F42)</f>
+        <v>-3.3869280000000002</v>
+      </c>
+      <c r="G43" s="6">
+        <f>AVERAGE(G38:G42)</f>
+        <v>2.0780926661926937</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>226.73752500000001</v>
+      </c>
+      <c r="F44" s="10">
+        <v>-4.5754010000000003</v>
+      </c>
+      <c r="G44">
+        <f>ABS((PI()-F44)/PI())</f>
+        <v>2.4563953715552023</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6">
+        <f>AVERAGE(E44:E48)</f>
+        <v>226.73752500000001</v>
+      </c>
+      <c r="F49" s="6">
+        <f>AVERAGE(F44:F48)</f>
+        <v>-4.5754010000000003</v>
+      </c>
+      <c r="G49" s="6">
+        <f>AVERAGE(G44:G48)</f>
+        <v>2.4563953715552023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBD7B61-A568-476E-97BA-813CF7295A71}">
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -2931,12 +6935,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9577F33C-990F-4E83-9752-11E7E2536153}">
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
@@ -4014,12 +8018,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9538B37-3E65-4F87-9DD7-4B4DEADFB78B}">
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
